--- a/misc/alipour/QC Checklist.xlsx
+++ b/misc/alipour/QC Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nassvr\Temp\zohrab\alipour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pouya\SQL_Tutorial_My_Files\misc\alipour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E5EB5-96D0-44C0-84B3-AE396404F019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD23EED-3B55-48AD-B79E-E6B6B543BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1170" windowWidth="17415" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1245" windowWidth="17415" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>هیچ کدام از combo box ها به ترتیب الفبا نیستند</t>
-  </si>
-  <si>
-    <t>در هیچ کدام</t>
   </si>
   <si>
     <t>!!</t>
@@ -194,6 +191,10 @@
   </si>
   <si>
     <t>در جست و جوی پایش مراکز تعریف شده، به اشتباه 'شروع' پایش تا تاریخ داریم.</t>
+  </si>
+  <si>
+    <t>!! اگر ویرایش شامل این چک باکس شود،
+ جواب نه هست</t>
   </si>
 </sst>
 </file>
@@ -306,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -633,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C42"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -672,17 +676,17 @@
         <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -691,132 +695,134 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="77.25" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
@@ -825,432 +831,432 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="59.25" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="63" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="63" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="25" spans="1:5" ht="42" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="25.5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="39" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="25.5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="58.5" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5">
-      <c r="A40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="25.5">
-      <c r="A41" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="25.5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="25.5">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="25.5">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="25.5">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="25.5">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="25.5">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="25.5">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="25.5">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="25.5">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="25.5">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="25.5">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="25.5">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="25.5">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="5"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
     </row>

--- a/misc/alipour/QC Checklist.xlsx
+++ b/misc/alipour/QC Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pouya\SQL_Tutorial_My_Files\misc\alipour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nassvr\Temp\zohrab\alipour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD23EED-3B55-48AD-B79E-E6B6B543BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BAAF3-95E8-4C9A-A0F6-B348753A20C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="1245" windowWidth="17415" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -171,6 +171,9 @@
     <t>هیچ کدام از combo box ها به ترتیب الفبا نیستند</t>
   </si>
   <si>
+    <t>در هیچ کدام</t>
+  </si>
+  <si>
     <t>!!</t>
   </si>
   <si>
@@ -186,15 +189,36 @@
     <t>پایش مرکز آموزشی</t>
   </si>
   <si>
-    <t>دکمه عامل در سربرگ ملاک جا دارد کوچک تر شود و حتی شاید
- در سربرگ های دیگر.</t>
-  </si>
-  <si>
     <t>در جست و جوی پایش مراکز تعریف شده، به اشتباه 'شروع' پایش تا تاریخ داریم.</t>
   </si>
   <si>
-    <t>!! اگر ویرایش شامل این چک باکس شود،
- جواب نه هست</t>
+    <t>در سربرگ ملاک و نشانگر و معیار قضاوت هم فعال و هم غیر فعال رادر کمبو باکس می آورد نه فقط فعال ها.</t>
+  </si>
+  <si>
+    <t>در سربرگ معیار قضاوت ستون اضافی بحرانی دارد و نمره به جای نمره معیار
+ قضاوت نوشته شده.</t>
+  </si>
+  <si>
+    <t>دکمه خروجی اکسل سربرگ عامل کار نمی کرد.</t>
+  </si>
+  <si>
+    <t>مجموع نمرات عامل های تعریف شده از 100 بزرگتر بود.</t>
+  </si>
+  <si>
+    <t>در فرم نشانگر فیلد نرخ به روز رسانی نداریم.</t>
+  </si>
+  <si>
+    <t>در سربرگ معیار قضاوت و فرم تعیین معیار قضاوت امکان افزودن نداریم در صورتی که 
+در سند این قابلیت ذکر شده.</t>
+  </si>
+  <si>
+    <t>در فرم تعیین عامل و تعیین ملاک و نشانگر و معیار قضاوت خیلی از مقادیر ضروری می تواند خالی بماند و ثبت شود بدون اخطار.</t>
+  </si>
+  <si>
+    <t>فیلد معیار قضاوت می توانست بیشتر از 300 کاراکتر قبول کند</t>
+  </si>
+  <si>
+    <t>این مورد شاید درست نباشد.</t>
   </si>
 </sst>
 </file>
@@ -335,6 +359,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,18 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -676,7 +700,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -736,7 +760,7 @@
       <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -747,9 +771,7 @@
       <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -837,9 +859,11 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="59.25" customHeight="1">
       <c r="A18" s="7" t="s">
@@ -873,7 +897,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
@@ -884,7 +908,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24.75" customHeight="1">
@@ -904,11 +928,9 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1">
@@ -921,7 +943,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="42" customHeight="1">
@@ -1022,7 +1044,7 @@
         <v>46</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="62.25" customHeight="1">
@@ -1035,7 +1057,7 @@
         <v>45</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1">
@@ -1092,171 +1114,187 @@
         <v>45</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5">
-      <c r="A40" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
+      <c r="A40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="25.5">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="25.5">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5">
-      <c r="A43" s="10"/>
+      <c r="A43" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="10"/>
+      <c r="A44" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="25.5">
-      <c r="A45" s="10"/>
+      <c r="A45" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5">
-      <c r="A46" s="10"/>
+      <c r="A46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5">
-      <c r="A47" s="10"/>
+      <c r="A47" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="25.5">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="25.5">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="25.5">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="25.5">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="25.5">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="25.5">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="25.5">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="25.5">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="25.5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="25.5">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="25.5">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="5"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
     </row>
@@ -1323,5 +1361,6 @@
     <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>